--- a/obj/records/pantheon.xlsx
+++ b/obj/records/pantheon.xlsx
@@ -787,52 +787,52 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E6" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F6" t="n">
-        <v>28.965</v>
+        <v>30.52083333333334</v>
       </c>
       <c r="G6" t="n">
-        <v>1189</v>
+        <v>1263</v>
       </c>
       <c r="H6" t="n">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="I6" t="n">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="J6" t="n">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="K6" t="n">
-        <v>11827</v>
+        <v>12557</v>
       </c>
       <c r="L6" t="n">
-        <v>534</v>
+        <v>562</v>
       </c>
       <c r="M6" t="n">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="N6" t="n">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="O6" t="n">
-        <v>9.206896551724139</v>
+        <v>9.21311475409836</v>
       </c>
       <c r="P6" t="n">
-        <v>6.189655172413793</v>
+        <v>6.229508196721311</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.844827586206897</v>
+        <v>7.80327868852459</v>
       </c>
       <c r="R6" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="S6" t="n">
-        <v>29.96</v>
+        <v>30.02</v>
       </c>
     </row>
     <row r="7">
@@ -1153,52 +1153,52 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>27.35116666666667</v>
+        <v>28.75483333333334</v>
       </c>
       <c r="G12" t="n">
-        <v>4339</v>
+        <v>4587</v>
       </c>
       <c r="H12" t="n">
-        <v>2454</v>
+        <v>2599</v>
       </c>
       <c r="I12" t="n">
-        <v>533</v>
+        <v>568</v>
       </c>
       <c r="J12" t="n">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="K12" t="n">
-        <v>1052</v>
+        <v>1109</v>
       </c>
       <c r="L12" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="N12" t="n">
-        <v>911</v>
+        <v>958</v>
       </c>
       <c r="O12" t="n">
-        <v>2.425925925925926</v>
+        <v>2.456140350877193</v>
       </c>
       <c r="P12" t="n">
-        <v>2.851851851851852</v>
+        <v>2.929824561403509</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.87037037037037</v>
+        <v>16.80701754385965</v>
       </c>
       <c r="R12" t="n">
-        <v>80.34999999999999</v>
+        <v>80.47</v>
       </c>
       <c r="S12" t="n">
-        <v>30.39</v>
+        <v>30.27</v>
       </c>
     </row>
     <row r="13">

--- a/obj/records/pantheon.xlsx
+++ b/obj/records/pantheon.xlsx
@@ -726,52 +726,52 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" t="n">
+        <v>12.567</v>
+      </c>
+      <c r="G5" t="n">
+        <v>571</v>
+      </c>
+      <c r="H5" t="n">
+        <v>280</v>
+      </c>
+      <c r="I5" t="n">
+        <v>53</v>
+      </c>
+      <c r="J5" t="n">
+        <v>59</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3246</v>
+      </c>
+      <c r="L5" t="n">
+        <v>67</v>
+      </c>
+      <c r="M5" t="n">
+        <v>124</v>
+      </c>
+      <c r="N5" t="n">
+        <v>208</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2.576923076923077</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.769230769230769</v>
+      </c>
+      <c r="Q5" t="n">
         <v>8</v>
       </c>
-      <c r="F5" t="n">
-        <v>9.877833333333335</v>
-      </c>
-      <c r="G5" t="n">
-        <v>478</v>
-      </c>
-      <c r="H5" t="n">
-        <v>227</v>
-      </c>
-      <c r="I5" t="n">
-        <v>45</v>
-      </c>
-      <c r="J5" t="n">
-        <v>46</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2553</v>
-      </c>
-      <c r="L5" t="n">
-        <v>50</v>
-      </c>
-      <c r="M5" t="n">
-        <v>102</v>
-      </c>
-      <c r="N5" t="n">
-        <v>166</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>8.300000000000001</v>
-      </c>
       <c r="R5" t="n">
-        <v>23.9</v>
+        <v>21.96</v>
       </c>
       <c r="S5" t="n">
-        <v>29.63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -787,52 +787,52 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E6" t="n">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="F6" t="n">
-        <v>30.52083333333334</v>
+        <v>54.66733333333335</v>
       </c>
       <c r="G6" t="n">
-        <v>1263</v>
+        <v>2273</v>
       </c>
       <c r="H6" t="n">
-        <v>533</v>
+        <v>953</v>
       </c>
       <c r="I6" t="n">
-        <v>169</v>
+        <v>312</v>
       </c>
       <c r="J6" t="n">
-        <v>169</v>
+        <v>304</v>
       </c>
       <c r="K6" t="n">
-        <v>12557</v>
+        <v>22466</v>
       </c>
       <c r="L6" t="n">
-        <v>562</v>
+        <v>944</v>
       </c>
       <c r="M6" t="n">
-        <v>380</v>
+        <v>682</v>
       </c>
       <c r="N6" t="n">
-        <v>476</v>
+        <v>842</v>
       </c>
       <c r="O6" t="n">
-        <v>9.21311475409836</v>
+        <v>8.660550458715596</v>
       </c>
       <c r="P6" t="n">
-        <v>6.229508196721311</v>
+        <v>6.256880733944954</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.80327868852459</v>
+        <v>7.724770642201835</v>
       </c>
       <c r="R6" t="n">
-        <v>20.7</v>
+        <v>20.85</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02</v>
+        <v>30.09</v>
       </c>
     </row>
     <row r="7">
@@ -848,52 +848,52 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F7" t="n">
-        <v>15.553</v>
+        <v>21.07966666666666</v>
       </c>
       <c r="G7" t="n">
-        <v>1289</v>
+        <v>2044</v>
       </c>
       <c r="H7" t="n">
-        <v>616</v>
+        <v>971</v>
       </c>
       <c r="I7" t="n">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="J7" t="n">
-        <v>171</v>
+        <v>266</v>
       </c>
       <c r="K7" t="n">
-        <v>3769</v>
+        <v>4224</v>
       </c>
       <c r="L7" t="n">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="M7" t="n">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="N7" t="n">
-        <v>361</v>
+        <v>467</v>
       </c>
       <c r="O7" t="n">
-        <v>5.392857142857143</v>
+        <v>5.475</v>
       </c>
       <c r="P7" t="n">
-        <v>3.892857142857143</v>
+        <v>3.825</v>
       </c>
       <c r="Q7" t="n">
-        <v>12.89285714285714</v>
+        <v>11.675</v>
       </c>
       <c r="R7" t="n">
-        <v>46.04</v>
+        <v>51.1</v>
       </c>
       <c r="S7" t="n">
-        <v>33.33</v>
+        <v>31.62</v>
       </c>
     </row>
     <row r="8">
@@ -1031,52 +1031,52 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>9.089166666666667</v>
+        <v>10.70233333333334</v>
       </c>
       <c r="G10" t="n">
-        <v>1289</v>
+        <v>1537</v>
       </c>
       <c r="H10" t="n">
-        <v>526</v>
+        <v>625</v>
       </c>
       <c r="I10" t="n">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="J10" t="n">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="K10" t="n">
-        <v>736</v>
+        <v>848</v>
       </c>
       <c r="L10" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M10" t="n">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="N10" t="n">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="O10" t="n">
-        <v>3.055555555555555</v>
+        <v>3.095238095238095</v>
       </c>
       <c r="P10" t="n">
-        <v>6.888888888888889</v>
+        <v>7.285714285714286</v>
       </c>
       <c r="Q10" t="n">
-        <v>12.27777777777778</v>
+        <v>13</v>
       </c>
       <c r="R10" t="n">
-        <v>71.61</v>
+        <v>73.19</v>
       </c>
       <c r="S10" t="n">
-        <v>30.3</v>
+        <v>30.58</v>
       </c>
     </row>
     <row r="11">
@@ -1153,52 +1153,52 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E12" t="n">
         <v>6</v>
       </c>
       <c r="F12" t="n">
-        <v>28.75483333333334</v>
+        <v>30.73633333333333</v>
       </c>
       <c r="G12" t="n">
-        <v>4587</v>
+        <v>4895</v>
       </c>
       <c r="H12" t="n">
-        <v>2599</v>
+        <v>2793</v>
       </c>
       <c r="I12" t="n">
-        <v>568</v>
+        <v>609</v>
       </c>
       <c r="J12" t="n">
-        <v>617</v>
+        <v>662</v>
       </c>
       <c r="K12" t="n">
-        <v>1109</v>
+        <v>1175</v>
       </c>
       <c r="L12" t="n">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="N12" t="n">
-        <v>958</v>
+        <v>1013</v>
       </c>
       <c r="O12" t="n">
-        <v>2.456140350877193</v>
+        <v>2.426229508196721</v>
       </c>
       <c r="P12" t="n">
-        <v>2.929824561403509</v>
+        <v>2.967213114754098</v>
       </c>
       <c r="Q12" t="n">
-        <v>16.80701754385965</v>
+        <v>16.60655737704918</v>
       </c>
       <c r="R12" t="n">
-        <v>80.47</v>
+        <v>80.25</v>
       </c>
       <c r="S12" t="n">
-        <v>30.27</v>
+        <v>30.23</v>
       </c>
     </row>
     <row r="13">
@@ -1214,52 +1214,52 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>14.49866666666667</v>
+        <v>19.95216666666667</v>
       </c>
       <c r="G13" t="n">
-        <v>890</v>
+        <v>1209</v>
       </c>
       <c r="H13" t="n">
-        <v>377</v>
+        <v>512</v>
       </c>
       <c r="I13" t="n">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="J13" t="n">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="K13" t="n">
-        <v>5368</v>
+        <v>7475</v>
       </c>
       <c r="L13" t="n">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="M13" t="n">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="N13" t="n">
-        <v>213</v>
+        <v>289</v>
       </c>
       <c r="O13" t="n">
-        <v>6.642857142857143</v>
+        <v>6.368421052631579</v>
       </c>
       <c r="P13" t="n">
-        <v>4.964285714285714</v>
+        <v>5.210526315789473</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.607142857142857</v>
+        <v>7.605263157894737</v>
       </c>
       <c r="R13" t="n">
-        <v>31.79</v>
+        <v>31.82</v>
       </c>
       <c r="S13" t="n">
-        <v>31.07</v>
+        <v>31.5</v>
       </c>
     </row>
   </sheetData>

--- a/obj/records/pantheon.xlsx
+++ b/obj/records/pantheon.xlsx
@@ -787,52 +787,52 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E6" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F6" t="n">
-        <v>54.66733333333335</v>
+        <v>58.42500000000002</v>
       </c>
       <c r="G6" t="n">
-        <v>2273</v>
+        <v>2401</v>
       </c>
       <c r="H6" t="n">
-        <v>953</v>
+        <v>1014</v>
       </c>
       <c r="I6" t="n">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="J6" t="n">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="K6" t="n">
-        <v>22466</v>
+        <v>23993</v>
       </c>
       <c r="L6" t="n">
-        <v>944</v>
+        <v>988</v>
       </c>
       <c r="M6" t="n">
-        <v>682</v>
+        <v>718</v>
       </c>
       <c r="N6" t="n">
-        <v>842</v>
+        <v>895</v>
       </c>
       <c r="O6" t="n">
-        <v>8.660550458715596</v>
+        <v>8.444444444444445</v>
       </c>
       <c r="P6" t="n">
-        <v>6.256880733944954</v>
+        <v>6.136752136752137</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.724770642201835</v>
+        <v>7.64957264957265</v>
       </c>
       <c r="R6" t="n">
-        <v>20.85</v>
+        <v>20.52</v>
       </c>
       <c r="S6" t="n">
-        <v>30.09</v>
+        <v>29.96</v>
       </c>
     </row>
     <row r="7">
@@ -1031,52 +1031,52 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F10" t="n">
-        <v>10.70233333333334</v>
+        <v>11.26316666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>1537</v>
+        <v>1647</v>
       </c>
       <c r="H10" t="n">
-        <v>625</v>
+        <v>678</v>
       </c>
       <c r="I10" t="n">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="J10" t="n">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="K10" t="n">
-        <v>848</v>
+        <v>900</v>
       </c>
       <c r="L10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M10" t="n">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="N10" t="n">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="O10" t="n">
-        <v>3.095238095238095</v>
+        <v>3.181818181818182</v>
       </c>
       <c r="P10" t="n">
-        <v>7.285714285714286</v>
+        <v>7.409090909090909</v>
       </c>
       <c r="Q10" t="n">
-        <v>13</v>
+        <v>13.31818181818182</v>
       </c>
       <c r="R10" t="n">
-        <v>73.19</v>
+        <v>74.86</v>
       </c>
       <c r="S10" t="n">
-        <v>30.58</v>
+        <v>30.72</v>
       </c>
     </row>
     <row r="11">

--- a/obj/records/pantheon.xlsx
+++ b/obj/records/pantheon.xlsx
@@ -848,52 +848,52 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7" t="n">
         <v>34</v>
       </c>
       <c r="F7" t="n">
-        <v>21.07966666666666</v>
+        <v>21.49466666666666</v>
       </c>
       <c r="G7" t="n">
-        <v>2044</v>
+        <v>2085</v>
       </c>
       <c r="H7" t="n">
-        <v>971</v>
+        <v>986</v>
       </c>
       <c r="I7" t="n">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="J7" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K7" t="n">
-        <v>4224</v>
+        <v>4278</v>
       </c>
       <c r="L7" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M7" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="N7" t="n">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="O7" t="n">
-        <v>5.475</v>
+        <v>5.390243902439025</v>
       </c>
       <c r="P7" t="n">
-        <v>3.825</v>
+        <v>3.902439024390244</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.675</v>
+        <v>11.58536585365854</v>
       </c>
       <c r="R7" t="n">
-        <v>51.1</v>
+        <v>50.85</v>
       </c>
       <c r="S7" t="n">
-        <v>31.62</v>
+        <v>31.46</v>
       </c>
     </row>
     <row r="8">

--- a/obj/records/pantheon.xlsx
+++ b/obj/records/pantheon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,7 +533,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Personne</t>
+          <t>ylarabka</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -543,58 +543,58 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>26.20416666666667</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1487</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8803</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>365</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>546</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.604166666666667</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.708333333333333</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>11.375</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>30.98</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>32.76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Kazsc</t>
+          <t>kulbutoké</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -604,119 +604,119 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12.567</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3246</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.576923076923077</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>4.769230769230769</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>21.96</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ylarabka</t>
+          <t>tomlora</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="E4" t="n">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F4" t="n">
-        <v>26.20416666666667</v>
+        <v>61.22950000000002</v>
       </c>
       <c r="G4" t="n">
-        <v>1487</v>
+        <v>2507</v>
       </c>
       <c r="H4" t="n">
-        <v>443</v>
+        <v>1071</v>
       </c>
       <c r="I4" t="n">
-        <v>283</v>
+        <v>346</v>
       </c>
       <c r="J4" t="n">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K4" t="n">
-        <v>8803</v>
+        <v>25067</v>
       </c>
       <c r="L4" t="n">
-        <v>365</v>
+        <v>1025</v>
       </c>
       <c r="M4" t="n">
-        <v>322</v>
+        <v>748</v>
       </c>
       <c r="N4" t="n">
-        <v>546</v>
+        <v>927</v>
       </c>
       <c r="O4" t="n">
-        <v>7.604166666666667</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="P4" t="n">
-        <v>6.708333333333333</v>
+        <v>6.08130081300813</v>
       </c>
       <c r="Q4" t="n">
-        <v>11.375</v>
+        <v>7.536585365853658</v>
       </c>
       <c r="R4" t="n">
-        <v>30.98</v>
+        <v>20.38</v>
       </c>
       <c r="S4" t="n">
-        <v>32.76</v>
+        <v>29.87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>kulbutoké</t>
+          <t>chatobogan</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -726,119 +726,119 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>12.567</v>
+        <v>24.10116666666666</v>
       </c>
       <c r="G5" t="n">
-        <v>571</v>
+        <v>2480</v>
       </c>
       <c r="H5" t="n">
-        <v>280</v>
+        <v>1201</v>
       </c>
       <c r="I5" t="n">
-        <v>53</v>
+        <v>341</v>
       </c>
       <c r="J5" t="n">
-        <v>59</v>
+        <v>329</v>
       </c>
       <c r="K5" t="n">
-        <v>3246</v>
+        <v>4476</v>
       </c>
       <c r="L5" t="n">
-        <v>67</v>
+        <v>244</v>
       </c>
       <c r="M5" t="n">
-        <v>124</v>
+        <v>185</v>
       </c>
       <c r="N5" t="n">
-        <v>208</v>
+        <v>539</v>
       </c>
       <c r="O5" t="n">
-        <v>2.576923076923077</v>
+        <v>5.304347826086956</v>
       </c>
       <c r="P5" t="n">
-        <v>4.769230769230769</v>
+        <v>4.021739130434782</v>
       </c>
       <c r="Q5" t="n">
-        <v>8</v>
+        <v>11.71739130434783</v>
       </c>
       <c r="R5" t="n">
-        <v>21.96</v>
+        <v>53.91</v>
       </c>
       <c r="S5" t="n">
-        <v>29</v>
+        <v>31.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>tomlora</t>
+          <t>exorblue</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
-        <v>104</v>
+        <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>58.42500000000002</v>
+        <v>13.9845</v>
       </c>
       <c r="G6" t="n">
-        <v>2401</v>
+        <v>1312</v>
       </c>
       <c r="H6" t="n">
-        <v>1014</v>
+        <v>488</v>
       </c>
       <c r="I6" t="n">
-        <v>335</v>
+        <v>183</v>
       </c>
       <c r="J6" t="n">
-        <v>322</v>
+        <v>189</v>
       </c>
       <c r="K6" t="n">
-        <v>23993</v>
+        <v>3293</v>
       </c>
       <c r="L6" t="n">
-        <v>988</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
-        <v>718</v>
+        <v>122</v>
       </c>
       <c r="N6" t="n">
-        <v>895</v>
+        <v>307</v>
       </c>
       <c r="O6" t="n">
-        <v>8.444444444444445</v>
+        <v>3.576923076923077</v>
       </c>
       <c r="P6" t="n">
-        <v>6.136752136752137</v>
+        <v>4.692307692307693</v>
       </c>
       <c r="Q6" t="n">
-        <v>7.64957264957265</v>
+        <v>11.80769230769231</v>
       </c>
       <c r="R6" t="n">
-        <v>20.52</v>
+        <v>50.46</v>
       </c>
       <c r="S6" t="n">
-        <v>29.96</v>
+        <v>32.27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>chatobogan</t>
+          <t>kazsc</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -848,58 +848,58 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>21.49466666666666</v>
+        <v>1.054166666666667</v>
       </c>
       <c r="G7" t="n">
-        <v>2085</v>
+        <v>58</v>
       </c>
       <c r="H7" t="n">
-        <v>986</v>
+        <v>21</v>
       </c>
       <c r="I7" t="n">
-        <v>288</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>272</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
-        <v>4278</v>
+        <v>459</v>
       </c>
       <c r="L7" t="n">
-        <v>221</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>475</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
-        <v>5.390243902439025</v>
+        <v>3.5</v>
       </c>
       <c r="P7" t="n">
-        <v>3.902439024390244</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>11.58536585365854</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>50.85</v>
+        <v>29</v>
       </c>
       <c r="S7" t="n">
-        <v>31.46</v>
+        <v>31.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>exorblue</t>
+          <t>nukethestars</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -909,58 +909,58 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
-        <v>13.9845</v>
+        <v>11.26316666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>1312</v>
+        <v>1647</v>
       </c>
       <c r="H8" t="n">
-        <v>488</v>
+        <v>678</v>
       </c>
       <c r="I8" t="n">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="J8" t="n">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="K8" t="n">
-        <v>3293</v>
+        <v>900</v>
       </c>
       <c r="L8" t="n">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="M8" t="n">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="N8" t="n">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="O8" t="n">
-        <v>3.576923076923077</v>
+        <v>3.181818181818182</v>
       </c>
       <c r="P8" t="n">
-        <v>4.692307692307693</v>
+        <v>7.409090909090909</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.80769230769231</v>
+        <v>13.31818181818182</v>
       </c>
       <c r="R8" t="n">
-        <v>50.46</v>
+        <v>74.86</v>
       </c>
       <c r="S8" t="n">
-        <v>32.27</v>
+        <v>30.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>kazsc</t>
+          <t>linò</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -970,58 +970,58 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F9" t="n">
-        <v>1.054166666666667</v>
+        <v>15.90883333333333</v>
       </c>
       <c r="G9" t="n">
-        <v>58</v>
+        <v>1047</v>
       </c>
       <c r="H9" t="n">
-        <v>21</v>
+        <v>355</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>97</v>
       </c>
       <c r="K9" t="n">
-        <v>459</v>
+        <v>7224</v>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>198</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>198</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>220</v>
       </c>
       <c r="O9" t="n">
-        <v>3.5</v>
+        <v>6.1875</v>
       </c>
       <c r="P9" t="n">
-        <v>2.5</v>
+        <v>6.1875</v>
       </c>
       <c r="Q9" t="n">
-        <v>3</v>
+        <v>6.875</v>
       </c>
       <c r="R9" t="n">
-        <v>29</v>
+        <v>32.72</v>
       </c>
       <c r="S9" t="n">
-        <v>31.62</v>
+        <v>29.83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>nukethestars</t>
+          <t>namiyeon</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1031,58 +1031,58 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>11.26316666666667</v>
+        <v>31.29</v>
       </c>
       <c r="G10" t="n">
-        <v>1647</v>
+        <v>4969</v>
       </c>
       <c r="H10" t="n">
-        <v>678</v>
+        <v>2837</v>
       </c>
       <c r="I10" t="n">
-        <v>239</v>
+        <v>613</v>
       </c>
       <c r="J10" t="n">
-        <v>166</v>
+        <v>672</v>
       </c>
       <c r="K10" t="n">
-        <v>900</v>
+        <v>1203</v>
       </c>
       <c r="L10" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="M10" t="n">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="N10" t="n">
-        <v>293</v>
+        <v>1028</v>
       </c>
       <c r="O10" t="n">
-        <v>3.181818181818182</v>
+        <v>2.419354838709677</v>
       </c>
       <c r="P10" t="n">
-        <v>7.409090909090909</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.31818181818182</v>
+        <v>16.58064516129032</v>
       </c>
       <c r="R10" t="n">
-        <v>74.86</v>
+        <v>80.15000000000001</v>
       </c>
       <c r="S10" t="n">
-        <v>30.72</v>
+        <v>30.28</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>linò</t>
+          <t>djingo</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1092,173 +1092,51 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F11" t="n">
-        <v>15.90883333333333</v>
+        <v>19.95216666666667</v>
       </c>
       <c r="G11" t="n">
-        <v>1047</v>
+        <v>1209</v>
       </c>
       <c r="H11" t="n">
-        <v>355</v>
+        <v>512</v>
       </c>
       <c r="I11" t="n">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="J11" t="n">
-        <v>97</v>
+        <v>197</v>
       </c>
       <c r="K11" t="n">
-        <v>7224</v>
+        <v>7475</v>
       </c>
       <c r="L11" t="n">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="M11" t="n">
         <v>198</v>
       </c>
       <c r="N11" t="n">
-        <v>220</v>
+        <v>289</v>
       </c>
       <c r="O11" t="n">
-        <v>6.1875</v>
+        <v>6.368421052631579</v>
       </c>
       <c r="P11" t="n">
-        <v>6.1875</v>
+        <v>5.210526315789473</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.875</v>
+        <v>7.605263157894737</v>
       </c>
       <c r="R11" t="n">
-        <v>32.72</v>
+        <v>31.82</v>
       </c>
       <c r="S11" t="n">
-        <v>29.83</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>namiyeon</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>61</v>
-      </c>
-      <c r="E12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F12" t="n">
-        <v>30.73633333333333</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4895</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2793</v>
-      </c>
-      <c r="I12" t="n">
-        <v>609</v>
-      </c>
-      <c r="J12" t="n">
-        <v>662</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1175</v>
-      </c>
-      <c r="L12" t="n">
-        <v>148</v>
-      </c>
-      <c r="M12" t="n">
-        <v>181</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1013</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2.426229508196721</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.967213114754098</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>16.60655737704918</v>
-      </c>
-      <c r="R12" t="n">
-        <v>80.25</v>
-      </c>
-      <c r="S12" t="n">
-        <v>30.23</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>djingo</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>38</v>
-      </c>
-      <c r="E13" t="n">
-        <v>23</v>
-      </c>
-      <c r="F13" t="n">
-        <v>19.95216666666667</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1209</v>
-      </c>
-      <c r="H13" t="n">
-        <v>512</v>
-      </c>
-      <c r="I13" t="n">
-        <v>105</v>
-      </c>
-      <c r="J13" t="n">
-        <v>197</v>
-      </c>
-      <c r="K13" t="n">
-        <v>7475</v>
-      </c>
-      <c r="L13" t="n">
-        <v>242</v>
-      </c>
-      <c r="M13" t="n">
-        <v>198</v>
-      </c>
-      <c r="N13" t="n">
-        <v>289</v>
-      </c>
-      <c r="O13" t="n">
-        <v>6.368421052631579</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5.210526315789473</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>7.605263157894737</v>
-      </c>
-      <c r="R13" t="n">
-        <v>31.82</v>
-      </c>
-      <c r="S13" t="n">
         <v>31.5</v>
       </c>
     </row>

--- a/obj/records/pantheon.xlsx
+++ b/obj/records/pantheon.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,52 +604,52 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>12.567</v>
+        <v>14.06</v>
       </c>
       <c r="G3" t="n">
-        <v>571</v>
+        <v>657</v>
       </c>
       <c r="H3" t="n">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="I3" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J3" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="K3" t="n">
-        <v>3246</v>
+        <v>3671</v>
       </c>
       <c r="L3" t="n">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="M3" t="n">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N3" t="n">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="O3" t="n">
-        <v>2.576923076923077</v>
+        <v>2.931034482758621</v>
       </c>
       <c r="P3" t="n">
-        <v>4.769230769230769</v>
+        <v>4.586206896551724</v>
       </c>
       <c r="Q3" t="n">
-        <v>8</v>
+        <v>7.862068965517241</v>
       </c>
       <c r="R3" t="n">
-        <v>21.96</v>
+        <v>22.66</v>
       </c>
       <c r="S3" t="n">
-        <v>29</v>
+        <v>29.09</v>
       </c>
     </row>
     <row r="4">
@@ -665,52 +665,52 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="E4" t="n">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F4" t="n">
-        <v>61.22950000000002</v>
+        <v>72.0156666666667</v>
       </c>
       <c r="G4" t="n">
-        <v>2507</v>
+        <v>2896</v>
       </c>
       <c r="H4" t="n">
-        <v>1071</v>
+        <v>1252</v>
       </c>
       <c r="I4" t="n">
-        <v>346</v>
+        <v>399</v>
       </c>
       <c r="J4" t="n">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="K4" t="n">
-        <v>25067</v>
+        <v>29178</v>
       </c>
       <c r="L4" t="n">
-        <v>1025</v>
+        <v>1159</v>
       </c>
       <c r="M4" t="n">
-        <v>748</v>
+        <v>886</v>
       </c>
       <c r="N4" t="n">
-        <v>927</v>
+        <v>1100</v>
       </c>
       <c r="O4" t="n">
-        <v>8.333333333333334</v>
+        <v>7.938356164383562</v>
       </c>
       <c r="P4" t="n">
-        <v>6.08130081300813</v>
+        <v>6.068493150684931</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.536585365853658</v>
+        <v>7.534246575342466</v>
       </c>
       <c r="R4" t="n">
-        <v>20.38</v>
+        <v>19.84</v>
       </c>
       <c r="S4" t="n">
-        <v>29.87</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="5">
@@ -726,52 +726,52 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F5" t="n">
-        <v>24.10116666666666</v>
+        <v>26.28183333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>2480</v>
+        <v>2866</v>
       </c>
       <c r="H5" t="n">
-        <v>1201</v>
+        <v>1391</v>
       </c>
       <c r="I5" t="n">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="J5" t="n">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="K5" t="n">
-        <v>4476</v>
+        <v>4617</v>
       </c>
       <c r="L5" t="n">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="M5" t="n">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="N5" t="n">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="O5" t="n">
-        <v>5.304347826086956</v>
+        <v>5.42</v>
       </c>
       <c r="P5" t="n">
-        <v>4.021739130434782</v>
+        <v>4.06</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.71739130434783</v>
+        <v>11.5</v>
       </c>
       <c r="R5" t="n">
-        <v>53.91</v>
+        <v>57.32</v>
       </c>
       <c r="S5" t="n">
-        <v>31.44</v>
+        <v>31.54</v>
       </c>
     </row>
     <row r="6">
@@ -909,52 +909,52 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>11.26316666666667</v>
+        <v>15.15316666666667</v>
       </c>
       <c r="G8" t="n">
-        <v>1647</v>
+        <v>2253</v>
       </c>
       <c r="H8" t="n">
-        <v>678</v>
+        <v>957</v>
       </c>
       <c r="I8" t="n">
-        <v>239</v>
+        <v>342</v>
       </c>
       <c r="J8" t="n">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="K8" t="n">
-        <v>900</v>
+        <v>1158</v>
       </c>
       <c r="L8" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="N8" t="n">
-        <v>293</v>
+        <v>425</v>
       </c>
       <c r="O8" t="n">
-        <v>3.181818181818182</v>
+        <v>3.064516129032258</v>
       </c>
       <c r="P8" t="n">
-        <v>7.409090909090909</v>
+        <v>7.161290322580645</v>
       </c>
       <c r="Q8" t="n">
-        <v>13.31818181818182</v>
+        <v>13.70967741935484</v>
       </c>
       <c r="R8" t="n">
-        <v>74.86</v>
+        <v>72.68000000000001</v>
       </c>
       <c r="S8" t="n">
-        <v>30.72</v>
+        <v>29.33</v>
       </c>
     </row>
     <row r="9">
@@ -1031,52 +1031,52 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>31.29</v>
+        <v>32.70866666666667</v>
       </c>
       <c r="G10" t="n">
-        <v>4969</v>
+        <v>5181</v>
       </c>
       <c r="H10" t="n">
-        <v>2837</v>
+        <v>2958</v>
       </c>
       <c r="I10" t="n">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="J10" t="n">
-        <v>672</v>
+        <v>701</v>
       </c>
       <c r="K10" t="n">
-        <v>1203</v>
+        <v>1246</v>
       </c>
       <c r="L10" t="n">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M10" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N10" t="n">
-        <v>1028</v>
+        <v>1079</v>
       </c>
       <c r="O10" t="n">
-        <v>2.419354838709677</v>
+        <v>2.369230769230769</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.938461538461539</v>
       </c>
       <c r="Q10" t="n">
-        <v>16.58064516129032</v>
+        <v>16.6</v>
       </c>
       <c r="R10" t="n">
-        <v>80.15000000000001</v>
+        <v>79.70999999999999</v>
       </c>
       <c r="S10" t="n">
-        <v>30.28</v>
+        <v>30.19</v>
       </c>
     </row>
     <row r="11">
@@ -1138,6 +1138,128 @@
       </c>
       <c r="S11" t="n">
         <v>31.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>chguizou</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>zyradelevingne</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/obj/records/pantheon.xlsx
+++ b/obj/records/pantheon.xlsx
@@ -604,52 +604,52 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>14.06</v>
+        <v>15.48733333333334</v>
       </c>
       <c r="G3" t="n">
-        <v>657</v>
+        <v>723</v>
       </c>
       <c r="H3" t="n">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="I3" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J3" t="n">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>3671</v>
+        <v>3884</v>
       </c>
       <c r="L3" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="M3" t="n">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="N3" t="n">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="O3" t="n">
-        <v>2.931034482758621</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>4.586206896551724</v>
+        <v>4.59375</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.862068965517241</v>
+        <v>7.8125</v>
       </c>
       <c r="R3" t="n">
-        <v>22.66</v>
+        <v>22.59</v>
       </c>
       <c r="S3" t="n">
-        <v>29.09</v>
+        <v>29.04</v>
       </c>
     </row>
     <row r="4">
@@ -665,52 +665,52 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E4" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F4" t="n">
-        <v>72.0156666666667</v>
+        <v>75.01533333333337</v>
       </c>
       <c r="G4" t="n">
-        <v>2896</v>
+        <v>3058</v>
       </c>
       <c r="H4" t="n">
-        <v>1252</v>
+        <v>1303</v>
       </c>
       <c r="I4" t="n">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="J4" t="n">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="K4" t="n">
-        <v>29178</v>
+        <v>30437</v>
       </c>
       <c r="L4" t="n">
-        <v>1159</v>
+        <v>1205</v>
       </c>
       <c r="M4" t="n">
-        <v>886</v>
+        <v>913</v>
       </c>
       <c r="N4" t="n">
-        <v>1100</v>
+        <v>1151</v>
       </c>
       <c r="O4" t="n">
-        <v>7.938356164383562</v>
+        <v>7.927631578947368</v>
       </c>
       <c r="P4" t="n">
-        <v>6.068493150684931</v>
+        <v>6.006578947368421</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.534246575342466</v>
+        <v>7.572368421052632</v>
       </c>
       <c r="R4" t="n">
-        <v>19.84</v>
+        <v>20.12</v>
       </c>
       <c r="S4" t="n">
-        <v>29.6</v>
+        <v>29.61</v>
       </c>
     </row>
     <row r="5">
@@ -909,52 +909,52 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
         <v>14</v>
       </c>
       <c r="F8" t="n">
-        <v>15.15316666666667</v>
+        <v>16.0685</v>
       </c>
       <c r="G8" t="n">
-        <v>2253</v>
+        <v>2375</v>
       </c>
       <c r="H8" t="n">
-        <v>957</v>
+        <v>1000</v>
       </c>
       <c r="I8" t="n">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="J8" t="n">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="K8" t="n">
-        <v>1158</v>
+        <v>1214</v>
       </c>
       <c r="L8" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="N8" t="n">
-        <v>425</v>
+        <v>457</v>
       </c>
       <c r="O8" t="n">
-        <v>3.064516129032258</v>
+        <v>2.939393939393939</v>
       </c>
       <c r="P8" t="n">
-        <v>7.161290322580645</v>
+        <v>7.242424242424242</v>
       </c>
       <c r="Q8" t="n">
-        <v>13.70967741935484</v>
+        <v>13.84848484848485</v>
       </c>
       <c r="R8" t="n">
-        <v>72.68000000000001</v>
+        <v>71.97</v>
       </c>
       <c r="S8" t="n">
-        <v>29.33</v>
+        <v>29.22</v>
       </c>
     </row>
     <row r="9">
@@ -1031,52 +1031,52 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>32.70866666666667</v>
+        <v>37.59033333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>5181</v>
+        <v>5911</v>
       </c>
       <c r="H10" t="n">
-        <v>2958</v>
+        <v>3386</v>
       </c>
       <c r="I10" t="n">
-        <v>633</v>
+        <v>739</v>
       </c>
       <c r="J10" t="n">
-        <v>701</v>
+        <v>801</v>
       </c>
       <c r="K10" t="n">
-        <v>1246</v>
+        <v>1463</v>
       </c>
       <c r="L10" t="n">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="M10" t="n">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="N10" t="n">
-        <v>1079</v>
+        <v>1221</v>
       </c>
       <c r="O10" t="n">
-        <v>2.369230769230769</v>
+        <v>2.526315789473684</v>
       </c>
       <c r="P10" t="n">
-        <v>2.938461538461539</v>
+        <v>2.934210526315789</v>
       </c>
       <c r="Q10" t="n">
-        <v>16.6</v>
+        <v>16.06578947368421</v>
       </c>
       <c r="R10" t="n">
-        <v>79.70999999999999</v>
+        <v>77.78</v>
       </c>
       <c r="S10" t="n">
-        <v>30.19</v>
+        <v>29.68</v>
       </c>
     </row>
     <row r="11">

--- a/obj/records/pantheon.xlsx
+++ b/obj/records/pantheon.xlsx
@@ -604,52 +604,52 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
         <v>18</v>
       </c>
       <c r="F3" t="n">
-        <v>15.48733333333334</v>
+        <v>15.93816666666667</v>
       </c>
       <c r="G3" t="n">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="H3" t="n">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="I3" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J3" t="n">
         <v>77</v>
       </c>
       <c r="K3" t="n">
-        <v>3884</v>
+        <v>4015</v>
       </c>
       <c r="L3" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M3" t="n">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N3" t="n">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="O3" t="n">
         <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>4.59375</v>
+        <v>4.545454545454546</v>
       </c>
       <c r="Q3" t="n">
-        <v>7.8125</v>
+        <v>7.878787878787879</v>
       </c>
       <c r="R3" t="n">
-        <v>22.59</v>
+        <v>22.24</v>
       </c>
       <c r="S3" t="n">
-        <v>29.04</v>
+        <v>28.98</v>
       </c>
     </row>
     <row r="4">
@@ -665,52 +665,52 @@
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="E4" t="n">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F4" t="n">
-        <v>75.01533333333337</v>
+        <v>86.42216666666668</v>
       </c>
       <c r="G4" t="n">
-        <v>3058</v>
+        <v>3615</v>
       </c>
       <c r="H4" t="n">
-        <v>1303</v>
+        <v>1521</v>
       </c>
       <c r="I4" t="n">
-        <v>438</v>
+        <v>505</v>
       </c>
       <c r="J4" t="n">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="K4" t="n">
-        <v>30437</v>
+        <v>35171</v>
       </c>
       <c r="L4" t="n">
-        <v>1205</v>
+        <v>1323</v>
       </c>
       <c r="M4" t="n">
-        <v>913</v>
+        <v>1004</v>
       </c>
       <c r="N4" t="n">
-        <v>1151</v>
+        <v>1343</v>
       </c>
       <c r="O4" t="n">
-        <v>7.927631578947368</v>
+        <v>7.603448275862069</v>
       </c>
       <c r="P4" t="n">
-        <v>6.006578947368421</v>
+        <v>5.770114942528735</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.572368421052632</v>
+        <v>7.718390804597701</v>
       </c>
       <c r="R4" t="n">
-        <v>20.12</v>
+        <v>20.78</v>
       </c>
       <c r="S4" t="n">
-        <v>29.61</v>
+        <v>29.8</v>
       </c>
     </row>
     <row r="5">
@@ -726,52 +726,52 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E5" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F5" t="n">
-        <v>26.28183333333333</v>
+        <v>28.504</v>
       </c>
       <c r="G5" t="n">
-        <v>2866</v>
+        <v>3051</v>
       </c>
       <c r="H5" t="n">
-        <v>1391</v>
+        <v>1468</v>
       </c>
       <c r="I5" t="n">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="J5" t="n">
-        <v>363</v>
+        <v>390</v>
       </c>
       <c r="K5" t="n">
-        <v>4617</v>
+        <v>5186</v>
       </c>
       <c r="L5" t="n">
-        <v>271</v>
+        <v>295</v>
       </c>
       <c r="M5" t="n">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="N5" t="n">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="O5" t="n">
-        <v>5.42</v>
+        <v>5.462962962962963</v>
       </c>
       <c r="P5" t="n">
-        <v>4.06</v>
+        <v>4.055555555555555</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.5</v>
+        <v>11.24074074074074</v>
       </c>
       <c r="R5" t="n">
-        <v>57.32</v>
+        <v>56.5</v>
       </c>
       <c r="S5" t="n">
-        <v>31.54</v>
+        <v>31.67</v>
       </c>
     </row>
     <row r="6">
@@ -787,52 +787,52 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
         <v>6</v>
       </c>
       <c r="F6" t="n">
-        <v>13.9845</v>
+        <v>15.84316666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>1312</v>
+        <v>1490</v>
       </c>
       <c r="H6" t="n">
-        <v>488</v>
+        <v>561</v>
       </c>
       <c r="I6" t="n">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="J6" t="n">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="K6" t="n">
-        <v>3293</v>
+        <v>3617</v>
       </c>
       <c r="L6" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="M6" t="n">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="N6" t="n">
-        <v>307</v>
+        <v>370</v>
       </c>
       <c r="O6" t="n">
-        <v>3.576923076923077</v>
+        <v>3.366666666666667</v>
       </c>
       <c r="P6" t="n">
-        <v>4.692307692307693</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.80769230769231</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="R6" t="n">
-        <v>50.46</v>
+        <v>49.67</v>
       </c>
       <c r="S6" t="n">
-        <v>32.27</v>
+        <v>31.69</v>
       </c>
     </row>
     <row r="7">
@@ -970,52 +970,52 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E9" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F9" t="n">
-        <v>15.90883333333333</v>
+        <v>21.35016666666667</v>
       </c>
       <c r="G9" t="n">
-        <v>1047</v>
+        <v>1422</v>
       </c>
       <c r="H9" t="n">
-        <v>355</v>
+        <v>483</v>
       </c>
       <c r="I9" t="n">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="J9" t="n">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="K9" t="n">
-        <v>7224</v>
+        <v>9792</v>
       </c>
       <c r="L9" t="n">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c r="M9" t="n">
-        <v>198</v>
+        <v>266</v>
       </c>
       <c r="N9" t="n">
-        <v>220</v>
+        <v>302</v>
       </c>
       <c r="O9" t="n">
-        <v>6.1875</v>
+        <v>6.357142857142857</v>
       </c>
       <c r="P9" t="n">
-        <v>6.1875</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.875</v>
+        <v>7.190476190476191</v>
       </c>
       <c r="R9" t="n">
-        <v>32.72</v>
+        <v>33.86</v>
       </c>
       <c r="S9" t="n">
-        <v>29.83</v>
+        <v>30.5</v>
       </c>
     </row>
     <row r="10">
@@ -1031,52 +1031,52 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E10" t="n">
         <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>37.59033333333333</v>
+        <v>38.55433333333333</v>
       </c>
       <c r="G10" t="n">
-        <v>5911</v>
+        <v>6065</v>
       </c>
       <c r="H10" t="n">
-        <v>3386</v>
+        <v>3494</v>
       </c>
       <c r="I10" t="n">
-        <v>739</v>
+        <v>773</v>
       </c>
       <c r="J10" t="n">
-        <v>801</v>
+        <v>823</v>
       </c>
       <c r="K10" t="n">
-        <v>1463</v>
+        <v>1513</v>
       </c>
       <c r="L10" t="n">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M10" t="n">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="N10" t="n">
-        <v>1221</v>
+        <v>1242</v>
       </c>
       <c r="O10" t="n">
-        <v>2.526315789473684</v>
+        <v>2.512820512820513</v>
       </c>
       <c r="P10" t="n">
-        <v>2.934210526315789</v>
+        <v>2.948717948717949</v>
       </c>
       <c r="Q10" t="n">
-        <v>16.06578947368421</v>
+        <v>15.92307692307692</v>
       </c>
       <c r="R10" t="n">
-        <v>77.78</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="S10" t="n">
-        <v>29.68</v>
+        <v>29.66</v>
       </c>
     </row>
     <row r="11">
@@ -1153,52 +1153,52 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.687666666666666</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>33.75</v>
       </c>
     </row>
     <row r="13">

--- a/obj/records/pantheon.xlsx
+++ b/obj/records/pantheon.xlsx
@@ -540,52 +540,52 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="E2">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="F2">
-        <v>26.20416666666667</v>
+        <v>2420</v>
       </c>
       <c r="G2">
-        <v>1487</v>
+        <v>815</v>
       </c>
       <c r="H2">
-        <v>443</v>
+        <v>811</v>
       </c>
       <c r="I2">
-        <v>283</v>
+        <v>387</v>
       </c>
       <c r="J2">
-        <v>335</v>
+        <v>528</v>
       </c>
       <c r="K2">
-        <v>8803</v>
+        <v>15281</v>
       </c>
       <c r="L2">
-        <v>365</v>
+        <v>548</v>
       </c>
       <c r="M2">
-        <v>322</v>
+        <v>495</v>
       </c>
       <c r="N2">
-        <v>546</v>
+        <v>788</v>
       </c>
       <c r="O2">
-        <v>7.604166666666667</v>
+        <v>6.936708860759493</v>
       </c>
       <c r="P2">
-        <v>6.708333333333333</v>
+        <v>6.265822784810126</v>
       </c>
       <c r="Q2">
-        <v>11.375</v>
+        <v>9.974683544303797</v>
       </c>
       <c r="R2">
-        <v>30.98</v>
+        <v>10.32</v>
       </c>
       <c r="S2">
-        <v>32.76</v>
+        <v>1837.97</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,52 +599,52 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>0.6141666666666666</v>
+        <v>1171</v>
       </c>
       <c r="G3">
-        <v>78</v>
+        <v>442</v>
       </c>
       <c r="H3">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="I3">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J3">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="K3">
-        <v>4278</v>
+        <v>4954</v>
       </c>
       <c r="L3">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M3">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="N3">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="O3">
-        <v>2.888888888888889</v>
+        <v>2.731707317073171</v>
       </c>
       <c r="P3">
-        <v>4.527777777777778</v>
+        <v>4.560975609756097</v>
       </c>
       <c r="Q3">
-        <v>7.944444444444445</v>
+        <v>7.317073170731708</v>
       </c>
       <c r="R3">
-        <v>2.17</v>
+        <v>10.78</v>
       </c>
       <c r="S3">
-        <v>1.02</v>
+        <v>1713.66</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -655,55 +655,55 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>251</v>
+        <v>296</v>
       </c>
       <c r="E4">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="F4">
-        <v>0.4758333333333333</v>
+        <v>8648</v>
       </c>
       <c r="G4">
-        <v>21</v>
+        <v>2552</v>
       </c>
       <c r="H4">
-        <v>2194</v>
+        <v>2563</v>
       </c>
       <c r="I4">
-        <v>763</v>
+        <v>868</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>795</v>
       </c>
       <c r="K4">
-        <v>50504</v>
+        <v>58854</v>
       </c>
       <c r="L4">
-        <v>1823</v>
+        <v>2091</v>
       </c>
       <c r="M4">
-        <v>1415</v>
+        <v>1638</v>
       </c>
       <c r="N4">
-        <v>1950</v>
+        <v>2261</v>
       </c>
       <c r="O4">
-        <v>7.262948207171315</v>
+        <v>7.064189189189189</v>
       </c>
       <c r="P4">
-        <v>5.637450199203188</v>
+        <v>5.533783783783784</v>
       </c>
       <c r="Q4">
-        <v>7.768924302788845</v>
+        <v>7.638513513513513</v>
       </c>
       <c r="R4">
-        <v>0.08</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="S4">
-        <v>0.11</v>
+        <v>1752.97</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,52 +717,52 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E5">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F5">
-        <v>0.502</v>
+        <v>4022</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>2575</v>
       </c>
       <c r="H5">
-        <v>2445</v>
+        <v>2508</v>
       </c>
       <c r="I5">
-        <v>652</v>
+        <v>675</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>732</v>
       </c>
       <c r="K5">
-        <v>20317</v>
+        <v>21160</v>
       </c>
       <c r="L5">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="M5">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="N5">
-        <v>1290</v>
+        <v>1311</v>
       </c>
       <c r="O5">
-        <v>4.960629921259843</v>
+        <v>4.900763358778626</v>
       </c>
       <c r="P5">
-        <v>3.409448818897638</v>
+        <v>3.427480916030534</v>
       </c>
       <c r="Q5">
-        <v>10.15748031496063</v>
+        <v>10.00763358778626</v>
       </c>
       <c r="R5">
-        <v>0.2</v>
+        <v>19.66</v>
       </c>
       <c r="S5">
-        <v>0.24</v>
+        <v>1842.14</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -782,10 +782,10 @@
         <v>8</v>
       </c>
       <c r="F6">
-        <v>0.5505</v>
+        <v>1421</v>
       </c>
       <c r="G6">
-        <v>82</v>
+        <v>1044</v>
       </c>
       <c r="H6">
         <v>1134</v>
@@ -794,7 +794,7 @@
         <v>372</v>
       </c>
       <c r="J6">
-        <v>9</v>
+        <v>354</v>
       </c>
       <c r="K6">
         <v>4143</v>
@@ -818,10 +818,10 @@
         <v>13.95918367346939</v>
       </c>
       <c r="R6">
-        <v>1.67</v>
+        <v>21.31</v>
       </c>
       <c r="S6">
-        <v>0.67</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -835,52 +835,52 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>0.5113333333333333</v>
+        <v>626</v>
       </c>
       <c r="G7">
-        <v>21</v>
+        <v>241</v>
       </c>
       <c r="H7">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="I7">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>2069</v>
+        <v>4532</v>
       </c>
       <c r="L7">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="M7">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="N7">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="O7">
-        <v>4.444444444444445</v>
+        <v>3.952380952380953</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>3.761904761904762</v>
       </c>
       <c r="Q7">
-        <v>6.444444444444445</v>
+        <v>5.714285714285714</v>
       </c>
       <c r="R7">
-        <v>2.33</v>
+        <v>11.48</v>
       </c>
       <c r="S7">
-        <v>3.41</v>
+        <v>1788.57</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -894,52 +894,52 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F8">
-        <v>0.8019999999999999</v>
+        <v>1652</v>
       </c>
       <c r="G8">
-        <v>158</v>
+        <v>2191</v>
       </c>
       <c r="H8">
-        <v>1619</v>
+        <v>2053</v>
       </c>
       <c r="I8">
-        <v>548</v>
+        <v>683</v>
       </c>
       <c r="J8">
-        <v>14</v>
+        <v>439</v>
       </c>
       <c r="K8">
-        <v>1635</v>
+        <v>2069</v>
       </c>
       <c r="L8">
-        <v>128</v>
+        <v>157</v>
       </c>
       <c r="M8">
-        <v>312</v>
+        <v>411</v>
       </c>
       <c r="N8">
-        <v>640</v>
+        <v>819</v>
       </c>
       <c r="O8">
-        <v>2.844444444444445</v>
+        <v>2.754385964912281</v>
       </c>
       <c r="P8">
-        <v>6.933333333333334</v>
+        <v>7.210526315789473</v>
       </c>
       <c r="Q8">
-        <v>14.22222222222222</v>
+        <v>14.36842105263158</v>
       </c>
       <c r="R8">
-        <v>3.51</v>
+        <v>38.44</v>
       </c>
       <c r="S8">
-        <v>1.07</v>
+        <v>1738.95</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -959,10 +959,10 @@
         <v>60</v>
       </c>
       <c r="F9">
-        <v>0.5355000000000001</v>
+        <v>1634</v>
       </c>
       <c r="G9">
-        <v>45</v>
+        <v>641</v>
       </c>
       <c r="H9">
         <v>633</v>
@@ -971,7 +971,7 @@
         <v>267</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="K9">
         <v>12759</v>
@@ -995,10 +995,10 @@
         <v>6.944444444444445</v>
       </c>
       <c r="R9">
-        <v>0.83</v>
+        <v>11.87</v>
       </c>
       <c r="S9">
-        <v>0.6</v>
+        <v>1815.56</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1012,52 +1012,52 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="E10">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F10">
-        <v>0.5438333333333334</v>
+        <v>3637</v>
       </c>
       <c r="G10">
-        <v>21</v>
+        <v>4159</v>
       </c>
       <c r="H10">
-        <v>3762</v>
+        <v>4178</v>
       </c>
       <c r="I10">
-        <v>853</v>
+        <v>986</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="K10">
-        <v>5745</v>
+        <v>9461</v>
       </c>
       <c r="L10">
-        <v>338</v>
+        <v>483</v>
       </c>
       <c r="M10">
-        <v>304</v>
+        <v>391</v>
       </c>
       <c r="N10">
-        <v>1419</v>
+        <v>1661</v>
       </c>
       <c r="O10">
-        <v>3.484536082474227</v>
+        <v>3.991735537190082</v>
       </c>
       <c r="P10">
-        <v>3.134020618556701</v>
+        <v>3.231404958677686</v>
       </c>
       <c r="Q10">
-        <v>14.62886597938144</v>
+        <v>13.72727272727273</v>
       </c>
       <c r="R10">
-        <v>0.22</v>
+        <v>34.37</v>
       </c>
       <c r="S10">
-        <v>0.34</v>
+        <v>1803.47</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1071,52 +1071,52 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E11">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>0.4778333333333334</v>
+        <v>1517</v>
       </c>
       <c r="G11">
-        <v>41</v>
+        <v>685</v>
       </c>
       <c r="H11">
-        <v>583</v>
+        <v>670</v>
       </c>
       <c r="I11">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>251</v>
       </c>
       <c r="K11">
-        <v>7971</v>
+        <v>9411</v>
       </c>
       <c r="L11">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="M11">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="N11">
-        <v>329</v>
+        <v>381</v>
       </c>
       <c r="O11">
-        <v>6.333333333333333</v>
+        <v>6.306122448979592</v>
       </c>
       <c r="P11">
-        <v>5.047619047619047</v>
+        <v>5.102040816326531</v>
       </c>
       <c r="Q11">
-        <v>7.833333333333333</v>
+        <v>7.775510204081633</v>
       </c>
       <c r="R11">
-        <v>0.98</v>
+        <v>13.98</v>
       </c>
       <c r="S11">
-        <v>0.68</v>
+        <v>1857.55</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1136,10 +1136,10 @@
         <v>12</v>
       </c>
       <c r="F12">
-        <v>7.399333333333334</v>
+        <v>400</v>
       </c>
       <c r="G12">
-        <v>256</v>
+        <v>116</v>
       </c>
       <c r="H12">
         <v>124</v>
@@ -1148,7 +1148,7 @@
         <v>22</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K12">
         <v>2324</v>
@@ -1172,10 +1172,10 @@
         <v>8.23076923076923</v>
       </c>
       <c r="R12">
-        <v>19.69</v>
+        <v>8.92</v>
       </c>
       <c r="S12">
-        <v>34.15</v>
+        <v>1846.15</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1189,52 +1189,52 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>769</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>5394</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>263</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>4.148148148148148</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>3.185185185185185</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>9.74074074074074</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>11.74</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1708.89</v>
       </c>
     </row>
   </sheetData>

--- a/obj/records/pantheon.xlsx
+++ b/obj/records/pantheon.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Joueurs</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>DUREE_MOYENNE</t>
+  </si>
+  <si>
+    <t>WARDS_POSEES_MOYENNE</t>
+  </si>
+  <si>
+    <t>WARDS_DETRUITES_MOYENNE</t>
+  </si>
+  <si>
+    <t>WARDS_PINKS_MOYENNE</t>
   </si>
   <si>
     <t>ylarabka</t>
@@ -464,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,10 +537,19 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -549,10 +567,10 @@
         <v>2420</v>
       </c>
       <c r="G2">
-        <v>815</v>
+        <v>2364</v>
       </c>
       <c r="H2">
-        <v>811</v>
+        <v>830</v>
       </c>
       <c r="I2">
         <v>387</v>
@@ -582,15 +600,24 @@
         <v>9.974683544303797</v>
       </c>
       <c r="R2">
-        <v>10.32</v>
+        <v>29.92</v>
       </c>
       <c r="S2">
         <v>1837.97</v>
       </c>
+      <c r="T2">
+        <v>10.51</v>
+      </c>
+      <c r="U2">
+        <v>4.9</v>
+      </c>
+      <c r="V2">
+        <v>6.68</v>
+      </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -608,10 +635,10 @@
         <v>1171</v>
       </c>
       <c r="G3">
+        <v>889</v>
+      </c>
+      <c r="H3">
         <v>442</v>
-      </c>
-      <c r="H3">
-        <v>450</v>
       </c>
       <c r="I3">
         <v>84</v>
@@ -641,15 +668,24 @@
         <v>7.317073170731708</v>
       </c>
       <c r="R3">
-        <v>10.78</v>
+        <v>21.68</v>
       </c>
       <c r="S3">
         <v>1713.66</v>
       </c>
+      <c r="T3">
+        <v>10.78</v>
+      </c>
+      <c r="U3">
+        <v>2.05</v>
+      </c>
+      <c r="V3">
+        <v>2.27</v>
+      </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -658,57 +694,66 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E4">
         <v>171</v>
       </c>
       <c r="F4">
-        <v>8648</v>
+        <v>8648.3755</v>
       </c>
       <c r="G4">
-        <v>2552</v>
+        <v>5961</v>
       </c>
       <c r="H4">
-        <v>2563</v>
+        <v>2559</v>
       </c>
       <c r="I4">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="J4">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="K4">
-        <v>58854</v>
+        <v>58978</v>
       </c>
       <c r="L4">
-        <v>2091</v>
+        <v>2098</v>
       </c>
       <c r="M4">
-        <v>1638</v>
+        <v>1645</v>
       </c>
       <c r="N4">
-        <v>2261</v>
+        <v>2267</v>
       </c>
       <c r="O4">
-        <v>7.064189189189189</v>
+        <v>7.063973063973064</v>
       </c>
       <c r="P4">
-        <v>5.533783783783784</v>
+        <v>5.538720538720539</v>
       </c>
       <c r="Q4">
-        <v>7.638513513513513</v>
+        <v>7.632996632996633</v>
       </c>
       <c r="R4">
+        <v>20.07</v>
+      </c>
+      <c r="S4">
+        <v>1747.15</v>
+      </c>
+      <c r="T4">
         <v>8.619999999999999</v>
       </c>
-      <c r="S4">
-        <v>1752.97</v>
+      <c r="U4">
+        <v>2.94</v>
+      </c>
+      <c r="V4">
+        <v>2.69</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -726,10 +771,10 @@
         <v>4022</v>
       </c>
       <c r="G5">
+        <v>5572</v>
+      </c>
+      <c r="H5">
         <v>2575</v>
-      </c>
-      <c r="H5">
-        <v>2508</v>
       </c>
       <c r="I5">
         <v>675</v>
@@ -759,15 +804,24 @@
         <v>10.00763358778626</v>
       </c>
       <c r="R5">
-        <v>19.66</v>
+        <v>42.53</v>
       </c>
       <c r="S5">
         <v>1842.14</v>
       </c>
+      <c r="T5">
+        <v>19.66</v>
+      </c>
+      <c r="U5">
+        <v>5.15</v>
+      </c>
+      <c r="V5">
+        <v>5.59</v>
+      </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -785,10 +839,10 @@
         <v>1421</v>
       </c>
       <c r="G6">
-        <v>1044</v>
+        <v>2811</v>
       </c>
       <c r="H6">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="I6">
         <v>372</v>
@@ -818,15 +872,24 @@
         <v>13.95918367346939</v>
       </c>
       <c r="R6">
-        <v>21.31</v>
+        <v>57.37</v>
       </c>
       <c r="S6">
         <v>1740</v>
       </c>
+      <c r="T6">
+        <v>23.06</v>
+      </c>
+      <c r="U6">
+        <v>7.59</v>
+      </c>
+      <c r="V6">
+        <v>7.22</v>
+      </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -844,7 +907,7 @@
         <v>626</v>
       </c>
       <c r="G7">
-        <v>241</v>
+        <v>553</v>
       </c>
       <c r="H7">
         <v>254</v>
@@ -877,15 +940,24 @@
         <v>5.714285714285714</v>
       </c>
       <c r="R7">
-        <v>11.48</v>
+        <v>26.33</v>
       </c>
       <c r="S7">
         <v>1788.57</v>
       </c>
+      <c r="T7">
+        <v>12.1</v>
+      </c>
+      <c r="U7">
+        <v>2.14</v>
+      </c>
+      <c r="V7">
+        <v>2.71</v>
+      </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -903,10 +975,10 @@
         <v>1652</v>
       </c>
       <c r="G8">
+        <v>4593</v>
+      </c>
+      <c r="H8">
         <v>2191</v>
-      </c>
-      <c r="H8">
-        <v>2053</v>
       </c>
       <c r="I8">
         <v>683</v>
@@ -936,15 +1008,24 @@
         <v>14.36842105263158</v>
       </c>
       <c r="R8">
-        <v>38.44</v>
+        <v>80.58</v>
       </c>
       <c r="S8">
         <v>1738.95</v>
       </c>
+      <c r="T8">
+        <v>38.44</v>
+      </c>
+      <c r="U8">
+        <v>11.98</v>
+      </c>
+      <c r="V8">
+        <v>7.7</v>
+      </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -962,10 +1043,10 @@
         <v>1634</v>
       </c>
       <c r="G9">
+        <v>1895</v>
+      </c>
+      <c r="H9">
         <v>641</v>
-      </c>
-      <c r="H9">
-        <v>633</v>
       </c>
       <c r="I9">
         <v>267</v>
@@ -995,15 +1076,24 @@
         <v>6.944444444444445</v>
       </c>
       <c r="R9">
-        <v>11.87</v>
+        <v>35.09</v>
       </c>
       <c r="S9">
         <v>1815.56</v>
       </c>
+      <c r="T9">
+        <v>11.87</v>
+      </c>
+      <c r="U9">
+        <v>4.94</v>
+      </c>
+      <c r="V9">
+        <v>2.93</v>
+      </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1021,10 +1111,10 @@
         <v>3637</v>
       </c>
       <c r="G10">
+        <v>7693</v>
+      </c>
+      <c r="H10">
         <v>4159</v>
-      </c>
-      <c r="H10">
-        <v>4178</v>
       </c>
       <c r="I10">
         <v>986</v>
@@ -1054,15 +1144,24 @@
         <v>13.72727272727273</v>
       </c>
       <c r="R10">
-        <v>34.37</v>
+        <v>63.58</v>
       </c>
       <c r="S10">
         <v>1803.47</v>
       </c>
+      <c r="T10">
+        <v>34.37</v>
+      </c>
+      <c r="U10">
+        <v>8.15</v>
+      </c>
+      <c r="V10">
+        <v>8.279999999999999</v>
+      </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1080,10 +1179,10 @@
         <v>1517</v>
       </c>
       <c r="G11">
+        <v>1623</v>
+      </c>
+      <c r="H11">
         <v>685</v>
-      </c>
-      <c r="H11">
-        <v>670</v>
       </c>
       <c r="I11">
         <v>141</v>
@@ -1113,15 +1212,24 @@
         <v>7.775510204081633</v>
       </c>
       <c r="R11">
-        <v>13.98</v>
+        <v>33.12</v>
       </c>
       <c r="S11">
         <v>1857.55</v>
       </c>
+      <c r="T11">
+        <v>13.98</v>
+      </c>
+      <c r="U11">
+        <v>2.88</v>
+      </c>
+      <c r="V11">
+        <v>5.12</v>
+      </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1139,10 +1247,10 @@
         <v>400</v>
       </c>
       <c r="G12">
-        <v>116</v>
+        <v>277</v>
       </c>
       <c r="H12">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I12">
         <v>22</v>
@@ -1172,15 +1280,24 @@
         <v>8.23076923076923</v>
       </c>
       <c r="R12">
-        <v>8.92</v>
+        <v>21.31</v>
       </c>
       <c r="S12">
         <v>1846.15</v>
       </c>
+      <c r="T12">
+        <v>9.23</v>
+      </c>
+      <c r="U12">
+        <v>1.69</v>
+      </c>
+      <c r="V12">
+        <v>0.31</v>
+      </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1198,7 +1315,7 @@
         <v>769</v>
       </c>
       <c r="G13">
-        <v>317</v>
+        <v>720</v>
       </c>
       <c r="H13">
         <v>336</v>
@@ -1231,10 +1348,19 @@
         <v>9.74074074074074</v>
       </c>
       <c r="R13">
-        <v>11.74</v>
+        <v>26.67</v>
       </c>
       <c r="S13">
         <v>1708.89</v>
+      </c>
+      <c r="T13">
+        <v>12.44</v>
+      </c>
+      <c r="U13">
+        <v>3.19</v>
+      </c>
+      <c r="V13">
+        <v>3.96</v>
       </c>
     </row>
   </sheetData>
